--- a/CASO PRÁCTICO.xlsx
+++ b/CASO PRÁCTICO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TRINIDAD\DIPLOMADO\MODULO 2\MATERIAL PRACTICO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TRINIDAD\DIPLOMADO\MODULO 2 EXCEL\MATERIAL PRACTICO\RESUELTO POR MI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90533EC-0542-4EB6-8B2F-6F20DA0B218E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44E5433-1AF1-47A0-8D34-D50342D2EE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instrucciones" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -3156,9 +3156,6 @@
     <t xml:space="preserve">Electrónica </t>
   </si>
   <si>
-    <t xml:space="preserve">Total de transacción </t>
-  </si>
-  <si>
     <t xml:space="preserve">Suma de Total de transacción </t>
   </si>
   <si>
@@ -3175,6 +3172,9 @@
   </si>
   <si>
     <t xml:space="preserve">Total de Transacción </t>
+  </si>
+  <si>
+    <t>Total de Ventas</t>
   </si>
 </sst>
 </file>
@@ -3184,7 +3184,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -3327,293 +3327,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{D0F61A33-ED8E-6546-AD42-314FE9CE01B4}"/>
   </cellStyles>
-  <dxfs count="115">
+  <dxfs count="25">
     <dxf>
-      <alignment horizontal="general" indent="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="general" indent="0"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="general" indent="0"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="general" indent="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="general" indent="0"/>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="general" indent="0"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="general" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
@@ -3664,55 +3439,10 @@
       <alignment horizontal="general" indent="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3854,49 +3584,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent4">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent4">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -4321,49 +4009,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -4448,49 +4094,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent4">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent4">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -17278,7 +16882,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D7920A0C-485C-4C23-ACC0-57C3F5E43ADC}" name="TablaDinámica3" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" grandTotalCaption="Total de Transacción " updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" rowHeaderCaption="Categoria " colHeaderCaption="Genero ">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D7920A0C-485C-4C23-ACC0-57C3F5E43ADC}" name="TablaDinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" grandTotalCaption="Total de Transacción " updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" rowHeaderCaption="Categoria " colHeaderCaption="Genero ">
   <location ref="A30:D35" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -17390,29 +16994,29 @@
     <pageField fld="4" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="Suma de Total de transacción " fld="8" baseField="0" baseItem="0" numFmtId="168"/>
+    <dataField name="Suma de Total de transacción " fld="8" baseField="0" baseItem="0" numFmtId="166"/>
   </dataFields>
   <formats count="17">
-    <format dxfId="107">
+    <format dxfId="22">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="106">
+    <format dxfId="21">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="105">
+    <format dxfId="20">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="104">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="103">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="102">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -17422,7 +17026,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="101">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -17432,29 +17036,29 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="100">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="99">
+    <format dxfId="14">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="98">
+    <format dxfId="13">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="97">
+    <format dxfId="12">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="96">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="95">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="94">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -17464,7 +17068,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="93">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -17474,10 +17078,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="92">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="68">
+    <format dxfId="6">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -17520,7 +17124,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E5D97036-9F4A-459E-AF66-EC5E1A933A5F}" name="TablaDinámica2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" grandTotalCaption="Total de Transacción " updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="20" rowHeaderCaption="Categoria " colHeaderCaption="Genero ">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E5D97036-9F4A-459E-AF66-EC5E1A933A5F}" name="TablaDinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" grandTotalCaption="Total de Transacción " updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="20" rowHeaderCaption="Categoria " colHeaderCaption="Genero ">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -17570,13 +17174,13 @@
     <pageField fld="3" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="Total de Transacciones porcategoria" fld="8" baseField="0" baseItem="0" numFmtId="168"/>
+    <dataField name="Total de Transacciones porcategoria" fld="8" baseField="0" baseItem="0" numFmtId="166"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="108">
+    <format dxfId="24">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="85">
+    <format dxfId="23">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -17828,7 +17432,7 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:U57"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection sqref="A1:S46"/>
     </sheetView>
   </sheetViews>
@@ -17838,1050 +17442,1050 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.1" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>1010</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
     </row>
     <row r="2" spans="1:21" ht="14.1" customHeight="1">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
     </row>
     <row r="3" spans="1:21" ht="14.1" customHeight="1">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
     </row>
     <row r="4" spans="1:21" ht="14.1" customHeight="1">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
     </row>
     <row r="5" spans="1:21" ht="14.1" customHeight="1">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
     </row>
     <row r="6" spans="1:21" ht="14.1" customHeight="1">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
     </row>
     <row r="7" spans="1:21" ht="14.1" customHeight="1">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
     </row>
     <row r="8" spans="1:21" ht="14.1" customHeight="1">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
     </row>
     <row r="9" spans="1:21" ht="14.1" customHeight="1">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
     </row>
     <row r="10" spans="1:21" ht="14.1" customHeight="1">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
     </row>
     <row r="11" spans="1:21" ht="14.1" customHeight="1">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
     </row>
     <row r="12" spans="1:21" ht="14.1" customHeight="1">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
     </row>
     <row r="13" spans="1:21" ht="14.1" customHeight="1">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
     </row>
     <row r="14" spans="1:21" ht="14.1" customHeight="1">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
     </row>
     <row r="15" spans="1:21" ht="14.1" customHeight="1">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
     </row>
     <row r="16" spans="1:21" ht="14.1" customHeight="1">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
     </row>
     <row r="17" spans="1:21" ht="14.1" customHeight="1">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
     </row>
     <row r="18" spans="1:21" ht="14.1" customHeight="1">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
     </row>
     <row r="19" spans="1:21" ht="14.1" customHeight="1">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
     </row>
     <row r="20" spans="1:21" ht="14.1" customHeight="1">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
     </row>
     <row r="21" spans="1:21" ht="14.1" customHeight="1">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
     </row>
     <row r="22" spans="1:21" ht="14.1" customHeight="1">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
     </row>
     <row r="23" spans="1:21" ht="14.1" customHeight="1">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
     </row>
     <row r="24" spans="1:21" ht="14.1" customHeight="1">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
     </row>
     <row r="25" spans="1:21" ht="14.1" customHeight="1">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="17"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
     </row>
     <row r="26" spans="1:21" ht="14.1" customHeight="1">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="17"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
     </row>
     <row r="27" spans="1:21" ht="14.1" customHeight="1">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="17"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
     </row>
     <row r="28" spans="1:21" ht="14.1" customHeight="1">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="17"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
     </row>
     <row r="29" spans="1:21" ht="14.1" customHeight="1">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
-      <c r="S29" s="17"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
     </row>
     <row r="30" spans="1:21" ht="14.1" customHeight="1">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="17"/>
-      <c r="S30" s="17"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="18"/>
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
     </row>
     <row r="31" spans="1:21" ht="14.1" customHeight="1">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="17"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
     </row>
     <row r="32" spans="1:21" ht="14.1" customHeight="1">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="17"/>
-      <c r="S32" s="17"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="18"/>
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
     </row>
     <row r="33" spans="1:21" ht="14.1" customHeight="1">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="17"/>
-      <c r="S33" s="17"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="18"/>
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
     </row>
     <row r="34" spans="1:21" ht="14.1" customHeight="1">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="17"/>
-      <c r="S34" s="17"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="18"/>
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
     </row>
     <row r="35" spans="1:21" ht="14.1" customHeight="1">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="17"/>
-      <c r="S35" s="17"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="18"/>
       <c r="T35" s="3"/>
       <c r="U35" s="3"/>
     </row>
     <row r="36" spans="1:21" ht="14.1" customHeight="1">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
-      <c r="R36" s="17"/>
-      <c r="S36" s="17"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="18"/>
+      <c r="S36" s="18"/>
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
     </row>
     <row r="37" spans="1:21" ht="14.1" customHeight="1">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
-      <c r="R37" s="17"/>
-      <c r="S37" s="17"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="18"/>
+      <c r="S37" s="18"/>
       <c r="T37" s="3"/>
       <c r="U37" s="3"/>
     </row>
     <row r="38" spans="1:21" ht="14.1" customHeight="1">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
-      <c r="R38" s="17"/>
-      <c r="S38" s="17"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="18"/>
+      <c r="S38" s="18"/>
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
     </row>
     <row r="39" spans="1:21" ht="14.1" customHeight="1">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
-      <c r="R39" s="17"/>
-      <c r="S39" s="17"/>
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18"/>
+      <c r="S39" s="18"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
     </row>
     <row r="40" spans="1:21" ht="14.1" customHeight="1">
-      <c r="A40" s="17"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
-      <c r="R40" s="17"/>
-      <c r="S40" s="17"/>
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="18"/>
+      <c r="P40" s="18"/>
+      <c r="Q40" s="18"/>
+      <c r="R40" s="18"/>
+      <c r="S40" s="18"/>
     </row>
     <row r="41" spans="1:21" ht="14.1" customHeight="1">
-      <c r="A41" s="17"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
-      <c r="R41" s="17"/>
-      <c r="S41" s="17"/>
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="18"/>
+      <c r="P41" s="18"/>
+      <c r="Q41" s="18"/>
+      <c r="R41" s="18"/>
+      <c r="S41" s="18"/>
     </row>
     <row r="42" spans="1:21" ht="14.1" customHeight="1">
-      <c r="A42" s="17"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
-      <c r="R42" s="17"/>
-      <c r="S42" s="17"/>
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="18"/>
+      <c r="P42" s="18"/>
+      <c r="Q42" s="18"/>
+      <c r="R42" s="18"/>
+      <c r="S42" s="18"/>
     </row>
     <row r="43" spans="1:21" ht="14.1" customHeight="1">
-      <c r="A43" s="17"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
-      <c r="R43" s="17"/>
-      <c r="S43" s="17"/>
+      <c r="A43" s="18"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="18"/>
+      <c r="O43" s="18"/>
+      <c r="P43" s="18"/>
+      <c r="Q43" s="18"/>
+      <c r="R43" s="18"/>
+      <c r="S43" s="18"/>
     </row>
     <row r="44" spans="1:21" ht="14.1" customHeight="1">
-      <c r="A44" s="17"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
-      <c r="R44" s="17"/>
-      <c r="S44" s="17"/>
+      <c r="A44" s="18"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="18"/>
+      <c r="N44" s="18"/>
+      <c r="O44" s="18"/>
+      <c r="P44" s="18"/>
+      <c r="Q44" s="18"/>
+      <c r="R44" s="18"/>
+      <c r="S44" s="18"/>
     </row>
     <row r="45" spans="1:21" ht="14.1" customHeight="1">
-      <c r="A45" s="17"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
-      <c r="R45" s="17"/>
-      <c r="S45" s="17"/>
+      <c r="A45" s="18"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="18"/>
+      <c r="N45" s="18"/>
+      <c r="O45" s="18"/>
+      <c r="P45" s="18"/>
+      <c r="Q45" s="18"/>
+      <c r="R45" s="18"/>
+      <c r="S45" s="18"/>
     </row>
     <row r="46" spans="1:21" ht="14.1" customHeight="1">
-      <c r="A46" s="17"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
-      <c r="R46" s="17"/>
-      <c r="S46" s="17"/>
+      <c r="A46" s="18"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="18"/>
+      <c r="O46" s="18"/>
+      <c r="P46" s="18"/>
+      <c r="Q46" s="18"/>
+      <c r="R46" s="18"/>
+      <c r="S46" s="18"/>
     </row>
     <row r="47" spans="1:21" ht="14.1" customHeight="1">
       <c r="A47" s="3"/>
@@ -19063,9 +18667,9 @@
   </sheetPr>
   <dimension ref="A1:L2461"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A979" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:I1001"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
@@ -19107,7 +18711,7 @@
         <v>1005</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>1014</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1">
@@ -65177,22 +64781,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1001">
-    <cfRule type="duplicateValues" dxfId="114" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="113" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="112" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="111" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>$F$19</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>$F$16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>$F$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -65202,10 +64806,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6217A663-BBE4-44DD-8D38-003539B003FA}">
+  <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A4" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -65314,22 +64919,22 @@
         <v>1008</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="16" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="10" t="s">
         <v>1011</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="17">
         <v>143515</v>
       </c>
     </row>
@@ -65337,7 +64942,7 @@
       <c r="A5" s="10" t="s">
         <v>1013</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="17">
         <v>156905</v>
       </c>
     </row>
@@ -65345,15 +64950,15 @@
       <c r="A6" s="10" t="s">
         <v>1012</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="17">
         <v>155580</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="10" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B7" s="18">
+        <v>1019</v>
+      </c>
+      <c r="B7" s="17">
         <v>456000</v>
       </c>
     </row>
@@ -65362,7 +64967,7 @@
         <v>1007</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -65371,17 +64976,17 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="16" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="16" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>1009</v>
@@ -65390,20 +64995,20 @@
         <v>1006</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="10" t="s">
         <v>1011</v>
       </c>
-      <c r="B32" s="18">
+      <c r="B32" s="17">
         <v>74830</v>
       </c>
-      <c r="C32" s="18">
+      <c r="C32" s="17">
         <v>68685</v>
       </c>
-      <c r="D32" s="18">
+      <c r="D32" s="17">
         <v>143515</v>
       </c>
     </row>
@@ -65411,13 +65016,13 @@
       <c r="A33" s="10" t="s">
         <v>1013</v>
       </c>
-      <c r="B33" s="18">
+      <c r="B33" s="17">
         <v>76735</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C33" s="17">
         <v>80170</v>
       </c>
-      <c r="D33" s="18">
+      <c r="D33" s="17">
         <v>156905</v>
       </c>
     </row>
@@ -65425,27 +65030,27 @@
       <c r="A34" s="10" t="s">
         <v>1012</v>
       </c>
-      <c r="B34" s="18">
+      <c r="B34" s="17">
         <v>81275</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C34" s="17">
         <v>74305</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D34" s="17">
         <v>155580</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="10" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B35" s="18">
+        <v>1019</v>
+      </c>
+      <c r="B35" s="17">
         <v>232840</v>
       </c>
-      <c r="C35" s="18">
+      <c r="C35" s="17">
         <v>223160</v>
       </c>
-      <c r="D35" s="18">
+      <c r="D35" s="17">
         <v>456000</v>
       </c>
     </row>
